--- a/Table/Skill_Data.xlsx
+++ b/Table/Skill_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\포트 폴리오\New_GameProject\ProjectW\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW_Git\My_GitTest\New-TestGit\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16890" windowHeight="8655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,80 +39,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번스킬</t>
-  </si>
-  <si>
-    <t>6번스킬</t>
-  </si>
-  <si>
-    <t>7번스킬</t>
-  </si>
-  <si>
-    <t>8번스킬</t>
-  </si>
-  <si>
-    <t>9번스킬</t>
-  </si>
-  <si>
-    <t>10번스킬</t>
-  </si>
-  <si>
-    <t>11번스킬</t>
-  </si>
-  <si>
-    <t>12번스킬</t>
-  </si>
-  <si>
-    <t>13번스킬</t>
-  </si>
-  <si>
-    <t>14번스킬</t>
-  </si>
-  <si>
-    <t>15번스킬</t>
-  </si>
-  <si>
-    <t>16번스킬</t>
-  </si>
-  <si>
-    <t>17번스킬</t>
-  </si>
-  <si>
-    <t>18번스킬</t>
-  </si>
-  <si>
-    <t>19번스킬</t>
-  </si>
-  <si>
-    <t>1번스킬 다패버리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번스킬 다후리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번스킬 다다다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4번스킬 도도도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiShotThree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3명 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiShotFour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4명 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiShotFive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5명 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiShotSix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6명 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyMoveSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동속도를 낮춤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,13 +421,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="60.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -464,7 +443,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -475,15 +456,17 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -494,15 +477,17 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -513,15 +498,17 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -532,15 +519,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -551,15 +540,17 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -569,15 +560,9 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -588,15 +573,9 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -607,15 +586,9 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -626,15 +599,9 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -645,15 +612,9 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -664,15 +625,9 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -683,15 +638,9 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -702,15 +651,9 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -721,15 +664,9 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -740,15 +677,9 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -759,15 +690,9 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -778,15 +703,9 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -797,15 +716,9 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -816,15 +729,9 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -835,15 +742,9 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -852,11 +753,6 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -869,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -880,10 +776,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
